--- a/InovcomType2.xlsx
+++ b/InovcomType2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ReportingProjet\projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F984A9-63B0-4BAA-A132-125FC5D2E32B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13954B12-4EBA-49FF-A409-236F057869B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
   </bookViews>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0796AD-0BCD-474C-83F2-122B75657A4B}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
